--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식+단답형_영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식+단답형_영어_유의어_Day03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,14 +799,326 @@
           <t>해결책, 곤경</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20221203</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>08</t>
+      <c r="D17" t="n">
+        <v>20221203</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vigilance</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>quandary</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>상</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>potency
+1. 효율, 효능
+2. 상, 소중한 것
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1, 효율, 효능</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>prudence</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>요청하다</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>complication*
+1. 절멸, 전멸, 소멸
+2. 조심
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3, 복잡</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>stipulate</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>해결하다</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>remedy</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>come off</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>accolade</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>습격하다</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>wariness</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>주의</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>disfigurement</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>절멸</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>garm</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>predicament</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>조심</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20221205</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>06</t>
         </is>
       </c>
     </row>
